--- a/Documenten/INF1C_Groep1_Week3.xlsx
+++ b/Documenten/INF1C_Groep1_Week3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t xml:space="preserve"> - De gebruiker kan recepten vinden op basis van ingredienten.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - De gebruiker krijgt relevante recepten, aan de hand van zijn/haar beoordelingen.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Gebruikersgegevens opslaan in de database.                                                  - Formulier maken.                                                        
 - Validatie van persoonsgegevens.                           </t>
   </si>
@@ -287,7 +284,18 @@
     <t xml:space="preserve"> - Maak een functie om te zoeken op ingredienten.                                                 - Haal de juiste recepten uit de database.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Sla de beoordelingen van gebruikers op.                                                                                 - Maak een functie die passende recepten vindt per gebruiker.</t>
+    <t xml:space="preserve"> - Sla de beoordelingen van gebruikers op.
+- Verwijder beoordelingen van gebruikers.
+- Haal beoordelingen van gebruikers op uit de database.                                                                                 
+- Maak een functie die passende recepten vindt per gebruiker.
+- Implementeer de functie om recepten te kunnen beoordelen in de applicatie.
+- Implementeer de functie om beoordelingen te kunnen verwijderen vanuit de applicatie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - De gebruiker krijgt relevante recepten, aan de hand van zijn/haar beoordelingen.
+- De gebruiker kan zijn/haar beoordelingen op recepten verwijderen.
+- De gebruiker kan recepten individueel beoordelen.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +562,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -562,7 +573,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,10 +877,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="22"/>
       <c r="D1" s="11"/>
       <c r="E1" s="10"/>
@@ -31196,10 +31207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -31317,8 +31328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -31332,10 +31343,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -31474,8 +31485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -31488,10 +31499,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -31531,7 +31542,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>72</v>
@@ -31541,7 +31552,7 @@
       <c r="A4" s="15">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -31551,7 +31562,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>73</v>
@@ -31571,7 +31582,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>74</v>
@@ -31591,17 +31602,17 @@
         <v>3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="179" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -31611,10 +31622,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/INF1C_Groep1_Week3.xlsx
+++ b/Documenten/INF1C_Groep1_Week3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>De applicatie geeft aan de hand van bookmarks bepaalde recepten weer</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -296,6 +293,25 @@
     <t xml:space="preserve"> - De gebruiker krijgt relevante recepten, aan de hand van zijn/haar beoordelingen.
 - De gebruiker kan zijn/haar beoordelingen op recepten verwijderen.
 - De gebruiker kan recepten individueel beoordelen.</t>
+  </si>
+  <si>
+    <t>De applicatie geeft aan de hand van beoordelingen bepaalde recepten weer</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik bladwijzers kunnen opslaan, zodat ik recepten later kan bekijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sla de bladwijzers van gebruikers op.
+- Verwijder bladwijzers van gebruikers.
+- Haal bladwijzers van gebruikers op uit de database.                                                                                 
+- Implementeer de functie om bladwijzers te maken in de applicatie.
+- Implementeer de functie om bladwijzers te verwijderen in de applicatie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De gebruiker kan opgeslagen bladwijzers terugvinden.
+- De gebruiker kan bladwijzers toevoegen.
+- De gebruiker kan bladwijzers verwijderen.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -549,9 +565,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,15 +578,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +871,10 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1165,8 +1178,8 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>47</v>
+      <c r="E8" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1383,8 +1396,8 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>46</v>
+      <c r="B14" t="s">
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -1551,8 +1564,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>47</v>
+      <c r="E18" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1591,8 +1604,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>47</v>
+      <c r="E19" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1631,8 +1644,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>47</v>
+      <c r="E20" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1659,6 +1672,21 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -31241,7 +31269,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>6</v>
@@ -31261,7 +31289,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>6</v>
@@ -31281,7 +31309,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -31301,7 +31329,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
@@ -31377,7 +31405,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>6</v>
@@ -31386,10 +31414,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -31397,7 +31425,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>6</v>
@@ -31406,10 +31434,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -31417,7 +31445,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -31426,10 +31454,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="130" customHeight="1" x14ac:dyDescent="0.15">
@@ -31437,7 +31465,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
@@ -31446,10 +31474,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -31457,7 +31485,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>6</v>
@@ -31466,10 +31494,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31483,10 +31511,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -31532,8 +31560,8 @@
       <c r="A3" s="15">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>55</v>
+      <c r="B3" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>6</v>
@@ -31542,18 +31570,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>58</v>
+      <c r="B4" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>6</v>
@@ -31562,18 +31590,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>56</v>
+      <c r="B5" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>35</v>
@@ -31582,18 +31610,18 @@
         <v>3</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>12</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>57</v>
+      <c r="B6" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>35</v>
@@ -31602,30 +31630,50 @@
         <v>3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="179" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>13</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>59</v>
+      <c r="B7" s="28" t="s">
+        <v>58</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>81</v>
+    </row>
+    <row r="8" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>19</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/INF1C_Groep1_Week3.xlsx
+++ b/Documenten/INF1C_Groep1_Week3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -31513,8 +31513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
